--- a/Data/BANKNIFTY.xlsx
+++ b/Data/BANKNIFTY.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,486 +476,486 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>46669.95</t>
+          <t>47286.90</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>46682.05</t>
+          <t>46218.00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>46752.85</t>
+          <t>47342.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>46534.90</t>
+          <t>46218.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>44.23K</t>
+          <t>172.52M</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.18%</t>
+          <t>2.53%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>46588.05</t>
+          <t>46120.90</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>46480.20</t>
+          <t>45881.45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>46722.25</t>
+          <t>46329.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>46324.90</t>
+          <t>45661.75</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>157.26M</t>
+          <t>544.73M</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>0.34%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>46576.50</t>
+          <t>45963.15</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>46615.85</t>
+          <t>46640.90</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>46893.15</t>
+          <t>46754.55</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>46513.55</t>
+          <t>45852.55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>223.68M</t>
+          <t>167.27M</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.50%</t>
+          <t>-1.34%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45345</v>
+        <v>45349</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>46811.75</t>
+          <t>46588.05</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>47060.70</t>
+          <t>46480.20</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>47245.35</t>
+          <t>46722.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>46723.15</t>
+          <t>46324.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>200.52M</t>
+          <t>157.26M</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.23%</t>
+          <t>0.02%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45344</v>
+        <v>45348</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>46919.80</t>
+          <t>46576.50</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>46934.55</t>
+          <t>46615.85</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>47024.05</t>
+          <t>46893.15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>46426.85</t>
+          <t>46513.55</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>177.18M</t>
+          <t>223.68M</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.21%</t>
+          <t>-0.50%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45343</v>
+        <v>45345</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>47019.70</t>
+          <t>46811.75</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>47363.40</t>
+          <t>47060.70</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>47363.40</t>
+          <t>47245.35</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>46886.95</t>
+          <t>46723.15</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>198.95M</t>
+          <t>200.52M</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.16%</t>
+          <t>-0.23%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45342</v>
+        <v>45344</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>47094.20</t>
+          <t>46919.80</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>46444.90</t>
+          <t>46934.55</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>47136.75</t>
+          <t>47024.05</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>46367.80</t>
+          <t>46426.85</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>171.89M</t>
+          <t>177.18M</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.20%</t>
+          <t>-0.21%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45341</v>
+        <v>45343</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>46535.50</t>
+          <t>47019.70</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>46554.90</t>
+          <t>47363.40</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>46717.40</t>
+          <t>47363.40</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>46317.70</t>
+          <t>46886.95</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>158.39M</t>
+          <t>198.95M</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.32%</t>
+          <t>-0.16%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45338</v>
+        <v>45342</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>46384.85</t>
+          <t>47094.20</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>46454.30</t>
+          <t>46444.90</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>46693.40</t>
+          <t>47136.75</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>46264.40</t>
+          <t>46367.80</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>291.38M</t>
+          <t>171.89M</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.36%</t>
+          <t>1.20%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45337</v>
+        <v>45341</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>46218.90</t>
+          <t>46535.50</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>46027.10</t>
+          <t>46554.90</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>46297.70</t>
+          <t>46717.40</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>45590.20</t>
+          <t>46317.70</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>277.74M</t>
+          <t>158.39M</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.68%</t>
+          <t>0.32%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45336</v>
+        <v>45338</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>45908.30</t>
+          <t>46384.85</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>45014.65</t>
+          <t>46454.30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>46170.45</t>
+          <t>46693.40</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>44860.75</t>
+          <t>46264.40</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>279.95M</t>
+          <t>291.38M</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.89%</t>
+          <t>0.36%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>45502.40</t>
+          <t>46218.90</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>45056.80</t>
+          <t>46027.10</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>45750.40</t>
+          <t>46297.70</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>44819.55</t>
+          <t>45590.20</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>245.86M</t>
+          <t>277.74M</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.38%</t>
+          <t>0.68%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>44882.25</t>
+          <t>45908.30</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>45664.30</t>
+          <t>45014.65</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>45748.50</t>
+          <t>46170.45</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>44633.85</t>
+          <t>44860.75</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>268.82M</t>
+          <t>279.95M</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-1.65%</t>
+          <t>0.89%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45331</v>
+        <v>45335</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>45634.55</t>
+          <t>45502.40</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>44986.75</t>
+          <t>45056.80</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>45718.15</t>
+          <t>45750.40</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>44859.15</t>
+          <t>44819.55</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>275.98M</t>
+          <t>245.86M</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -966,281 +966,246 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45330</v>
+        <v>45334</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>45012.00</t>
+          <t>44882.25</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>45973.85</t>
+          <t>45664.30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>46181.20</t>
+          <t>45748.50</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>44893.75</t>
+          <t>44633.85</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>319.91M</t>
+          <t>268.82M</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-1.76%</t>
+          <t>-1.65%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>45818.50</t>
+          <t>45634.55</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>45944.60</t>
+          <t>44986.75</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>46062.85</t>
+          <t>45718.15</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>45620.50</t>
+          <t>44859.15</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>283.68M</t>
+          <t>275.98M</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.28%</t>
+          <t>1.38%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>45690.80</t>
+          <t>45012.00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>45891.20</t>
+          <t>45973.85</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>45932.15</t>
+          <t>46181.20</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>45527.00</t>
+          <t>44893.75</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>178.59M</t>
+          <t>319.91M</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-0.29%</t>
+          <t>-1.76%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>45825.55</t>
+          <t>45818.50</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>45962.25</t>
+          <t>45944.60</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>46048.60</t>
+          <t>46062.85</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>45615.10</t>
+          <t>45620.50</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>265.91M</t>
+          <t>283.68M</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-0.32%</t>
+          <t>0.28%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>45970.95</t>
+          <t>45690.80</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>46568.20</t>
+          <t>45891.20</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>46892.35</t>
+          <t>45932.15</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>45901.25</t>
+          <t>45527.00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>337.04M</t>
+          <t>178.59M</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-0.47%</t>
+          <t>-0.29%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45323</v>
+        <v>45327</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>46188.65</t>
+          <t>45825.55</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>46164.90</t>
+          <t>45962.25</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>46306.90</t>
+          <t>46048.60</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>45668.35</t>
+          <t>45615.10</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>305.72M</t>
+          <t>265.91M</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>-0.32%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>45996.80</t>
+          <t>45970.95</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>45295.65</t>
+          <t>46568.20</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>46179.75</t>
+          <t>46892.35</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>45071.20</t>
+          <t>45901.25</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>373.13M</t>
+          <t>337.04M</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.39%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45321</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>45367.75</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>45481.50</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>45678.70</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>45206.05</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>232.11M</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>-0.16%</t>
+          <t>-0.47%</t>
         </is>
       </c>
     </row>
